--- a/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:54:26+00:00</t>
+    <t>2024-09-18T08:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4515" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4511" uniqueCount="690">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T08:16:45+00:00</t>
+    <t>2024-10-02T08:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1637,9 +1637,6 @@
     <t>Observation.dataAbsentReason.coding.code</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Observation.dataAbsentReason.coding.display</t>
   </si>
   <si>
@@ -1828,9 +1825,8 @@
 </t>
   </si>
   <si>
-    <t>Dispositif utilisé pour l'observation
-Si la mesure a été faite par un objet connecté (Profil PhdDevice)
-, cette référence est obligatoire</t>
+    <t>Dispositif utilisé pour récolter l'information. Ce dispositif peut être l'application permettant de renseigner la valeur. 
+Si la mesure a été faite par un objet connecté (Profil PhdDevice), cette référence est obligatoire</t>
   </si>
   <si>
     <t>The device used to generate the observation data.</t>
@@ -10954,7 +10950,7 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>122</v>
@@ -10969,7 +10965,7 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -11076,7 +11072,7 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -11314,7 +11310,7 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>122</v>
@@ -11329,7 +11325,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11436,7 +11432,7 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>105</v>
@@ -11556,7 +11552,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11616,9 +11612,7 @@
       <c r="M76" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N76" t="s" s="2">
-        <v>521</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>313</v>
       </c>
@@ -11678,7 +11672,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11704,10 +11698,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11738,9 +11732,7 @@
       <c r="M77" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N77" t="s" s="2">
-        <v>521</v>
-      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>322</v>
       </c>
@@ -11800,7 +11792,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11826,10 +11818,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11922,7 +11914,7 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>105</v>
@@ -11948,10 +11940,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12044,7 +12036,7 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>105</v>
@@ -12070,14 +12062,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12099,16 +12091,16 @@
         <v>262</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12137,7 +12129,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12155,7 +12147,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12173,27 +12165,27 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP80" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>535</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12216,19 +12208,19 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12277,7 +12269,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12298,10 +12290,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12312,10 +12304,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12341,13 +12333,13 @@
         <v>262</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12377,7 +12369,7 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12395,7 +12387,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12413,27 +12405,27 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP82" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12548,10 +12540,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12642,7 +12634,7 @@
         <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>122</v>
@@ -12657,7 +12649,7 @@
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12668,10 +12660,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12764,7 +12756,7 @@
         <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>105</v>
@@ -12790,10 +12782,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12908,10 +12900,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13002,7 +12994,7 @@
         <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>122</v>
@@ -13017,7 +13009,7 @@
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13028,10 +13020,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13124,7 +13116,7 @@
         <v>93</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>105</v>
@@ -13150,10 +13142,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13244,7 +13236,7 @@
         <v>93</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13270,10 +13262,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13304,9 +13296,7 @@
       <c r="M90" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N90" t="s" s="2">
-        <v>521</v>
-      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>313</v>
       </c>
@@ -13366,7 +13356,7 @@
         <v>93</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>105</v>
@@ -13392,10 +13382,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13426,9 +13416,7 @@
       <c r="M91" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N91" t="s" s="2">
-        <v>521</v>
-      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>322</v>
       </c>
@@ -13488,7 +13476,7 @@
         <v>93</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>105</v>
@@ -13514,10 +13502,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13610,7 +13598,7 @@
         <v>93</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>105</v>
@@ -13636,10 +13624,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13732,7 +13720,7 @@
         <v>93</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>105</v>
@@ -13758,10 +13746,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13787,16 +13775,16 @@
         <v>262</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13825,7 +13813,7 @@
       </c>
       <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13843,7 +13831,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13864,10 +13852,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13878,10 +13866,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13904,16 +13892,16 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13963,7 +13951,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13981,27 +13969,27 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AN95" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AO95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>580</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14024,16 +14012,16 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -14083,7 +14071,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14101,27 +14089,27 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="AM96" t="s" s="2">
+      <c r="AN96" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="AN96" t="s" s="2">
+      <c r="AO96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP96" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>589</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14144,19 +14132,19 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14205,7 +14193,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14217,19 +14205,19 @@
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AK97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AN97" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14240,10 +14228,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14358,10 +14346,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14478,14 +14466,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14507,10 +14495,10 @@
         <v>114</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>117</v>
@@ -14565,7 +14553,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14600,10 +14588,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14626,13 +14614,13 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14683,7 +14671,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14692,7 +14680,7 @@
         <v>93</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>105</v>
@@ -14704,10 +14692,10 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14718,10 +14706,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14744,13 +14732,13 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14801,7 +14789,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14810,7 +14798,7 @@
         <v>93</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>105</v>
@@ -14822,10 +14810,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14836,10 +14824,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14865,16 +14853,16 @@
         <v>262</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14902,11 +14890,11 @@
         <v>177</v>
       </c>
       <c r="Y103" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="Z103" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="Z103" t="s" s="2">
-        <v>623</v>
-      </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
       </c>
@@ -14923,7 +14911,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14941,13 +14929,13 @@
         <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="AM103" t="s" s="2">
-        <v>625</v>
-      </c>
       <c r="AN103" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14958,10 +14946,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14987,16 +14975,16 @@
         <v>262</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="N104" t="s" s="2">
+      <c r="O104" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15024,11 +15012,11 @@
         <v>163</v>
       </c>
       <c r="Y104" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="Z104" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="Z104" t="s" s="2">
-        <v>632</v>
-      </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
       </c>
@@ -15045,7 +15033,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15063,13 +15051,13 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="AM104" t="s" s="2">
-        <v>625</v>
-      </c>
       <c r="AN104" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15080,10 +15068,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15106,17 +15094,17 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15165,7 +15153,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15189,7 +15177,7 @@
         <v>82</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15200,10 +15188,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15229,10 +15217,10 @@
         <v>107</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15283,7 +15271,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15304,10 +15292,10 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15318,10 +15306,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15344,16 +15332,16 @@
         <v>94</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15403,7 +15391,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15424,10 +15412,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15438,10 +15426,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15464,16 +15452,16 @@
         <v>94</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15523,7 +15511,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15544,10 +15532,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15558,10 +15546,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15584,19 +15572,19 @@
         <v>94</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="M109" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15645,7 +15633,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15657,19 +15645,19 @@
         <v>82</v>
       </c>
       <c r="AJ109" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="AK109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM109" t="s" s="2">
+      <c r="AN109" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15680,10 +15668,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15798,10 +15786,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15918,14 +15906,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15947,10 +15935,10 @@
         <v>114</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>117</v>
@@ -16005,7 +15993,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16040,10 +16028,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16069,16 +16057,16 @@
         <v>262</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="N113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16127,7 +16115,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>93</v>
@@ -16145,7 +16133,7 @@
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>355</v>
@@ -16162,10 +16150,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16188,16 +16176,16 @@
         <v>94</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>442</v>
@@ -16228,37 +16216,37 @@
         <v>254</v>
       </c>
       <c r="Y114" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="Z114" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="Z114" t="s" s="2">
+      <c r="AA114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI114" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>105</v>
@@ -16267,7 +16255,7 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>447</v>
@@ -16284,10 +16272,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16313,13 +16301,13 @@
         <v>262</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>508</v>
@@ -16371,7 +16359,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16380,7 +16368,7 @@
         <v>93</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>105</v>
@@ -16406,14 +16394,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16435,16 +16423,16 @@
         <v>262</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16472,10 +16460,10 @@
         <v>155</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16493,7 +16481,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16511,27 +16499,27 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AM116" t="s" s="2">
+      <c r="AN116" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AN116" t="s" s="2">
+      <c r="AO116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP116" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>535</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16557,16 +16545,16 @@
         <v>83</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="M117" t="s" s="2">
-        <v>690</v>
-      </c>
       <c r="N117" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="O117" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16615,7 +16603,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16636,10 +16624,10 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AN117" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4511" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4515" uniqueCount="691">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:33:33+00:00</t>
+    <t>2024-10-02T08:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1635,6 +1635,9 @@
   </si>
   <si>
     <t>Observation.dataAbsentReason.coding.code</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason.coding.display</t>
@@ -10950,7 +10953,7 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>122</v>
@@ -10965,7 +10968,7 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -11072,7 +11075,7 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -11310,7 +11313,7 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>122</v>
@@ -11325,7 +11328,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11432,7 +11435,7 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>105</v>
@@ -11552,7 +11555,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11612,7 +11615,9 @@
       <c r="M76" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>313</v>
       </c>
@@ -11672,7 +11677,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11698,10 +11703,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11732,7 +11737,9 @@
       <c r="M77" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>322</v>
       </c>
@@ -11792,7 +11799,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11818,10 +11825,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11914,7 +11921,7 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>105</v>
@@ -11940,10 +11947,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12036,7 +12043,7 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>105</v>
@@ -12062,14 +12069,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12091,16 +12098,16 @@
         <v>262</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12129,7 +12136,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12147,7 +12154,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12165,27 +12172,27 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12208,19 +12215,19 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12269,7 +12276,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12290,10 +12297,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12304,10 +12311,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12333,13 +12340,13 @@
         <v>262</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12369,7 +12376,7 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12387,7 +12394,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12405,27 +12412,27 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12540,10 +12547,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12634,7 +12641,7 @@
         <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>122</v>
@@ -12649,7 +12656,7 @@
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12660,10 +12667,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12756,7 +12763,7 @@
         <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>105</v>
@@ -12782,10 +12789,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12900,10 +12907,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12994,7 +13001,7 @@
         <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>122</v>
@@ -13009,7 +13016,7 @@
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13020,10 +13027,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13116,7 +13123,7 @@
         <v>93</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>105</v>
@@ -13142,10 +13149,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13236,7 +13243,7 @@
         <v>93</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13262,10 +13269,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13296,7 +13303,9 @@
       <c r="M90" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>313</v>
       </c>
@@ -13356,7 +13365,7 @@
         <v>93</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>105</v>
@@ -13382,10 +13391,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13416,7 +13425,9 @@
       <c r="M91" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>322</v>
       </c>
@@ -13476,7 +13487,7 @@
         <v>93</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>105</v>
@@ -13502,10 +13513,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13598,7 +13609,7 @@
         <v>93</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>105</v>
@@ -13624,10 +13635,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13720,7 +13731,7 @@
         <v>93</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>105</v>
@@ -13746,10 +13757,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13775,16 +13786,16 @@
         <v>262</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13813,7 +13824,7 @@
       </c>
       <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13831,7 +13842,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13852,10 +13863,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13866,10 +13877,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13892,16 +13903,16 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13951,7 +13962,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13969,27 +13980,27 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14012,16 +14023,16 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -14071,7 +14082,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14089,27 +14100,27 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14132,19 +14143,19 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14193,7 +14204,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14205,7 +14216,7 @@
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -14214,10 +14225,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14228,10 +14239,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14346,10 +14357,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14466,14 +14477,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14495,10 +14506,10 @@
         <v>114</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>117</v>
@@ -14553,7 +14564,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14588,10 +14599,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14614,13 +14625,13 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14671,7 +14682,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14680,7 +14691,7 @@
         <v>93</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>105</v>
@@ -14692,10 +14703,10 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14706,10 +14717,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14732,13 +14743,13 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14789,7 +14800,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14798,7 +14809,7 @@
         <v>93</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>105</v>
@@ -14810,10 +14821,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14824,10 +14835,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14853,16 +14864,16 @@
         <v>262</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14890,10 +14901,10 @@
         <v>177</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14911,7 +14922,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14929,13 +14940,13 @@
         <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14946,10 +14957,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14975,16 +14986,16 @@
         <v>262</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15012,10 +15023,10 @@
         <v>163</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -15033,7 +15044,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15051,13 +15062,13 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15068,10 +15079,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15094,17 +15105,17 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15153,7 +15164,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15177,7 +15188,7 @@
         <v>82</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15188,10 +15199,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15217,10 +15228,10 @@
         <v>107</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15271,7 +15282,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15292,10 +15303,10 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15306,10 +15317,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15332,16 +15343,16 @@
         <v>94</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15391,7 +15402,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15412,10 +15423,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15426,10 +15437,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15452,16 +15463,16 @@
         <v>94</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15511,7 +15522,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15532,10 +15543,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15546,10 +15557,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15572,19 +15583,19 @@
         <v>94</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15633,7 +15644,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15645,7 +15656,7 @@
         <v>82</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>82</v>
@@ -15654,10 +15665,10 @@
         <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15668,10 +15679,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15786,10 +15797,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15906,14 +15917,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15935,10 +15946,10 @@
         <v>114</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>117</v>
@@ -15993,7 +16004,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16028,10 +16039,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16057,16 +16068,16 @@
         <v>262</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16115,7 +16126,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>93</v>
@@ -16133,7 +16144,7 @@
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>355</v>
@@ -16150,10 +16161,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16176,16 +16187,16 @@
         <v>94</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>442</v>
@@ -16216,10 +16227,10 @@
         <v>254</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16237,7 +16248,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16246,7 +16257,7 @@
         <v>93</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>105</v>
@@ -16255,7 +16266,7 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>447</v>
@@ -16272,10 +16283,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16301,13 +16312,13 @@
         <v>262</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>508</v>
@@ -16359,7 +16370,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16368,7 +16379,7 @@
         <v>93</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>105</v>
@@ -16394,14 +16405,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16423,16 +16434,16 @@
         <v>262</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16460,28 +16471,28 @@
         <v>155</v>
       </c>
       <c r="Y116" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF116" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>685</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16499,27 +16510,27 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16545,16 +16556,16 @@
         <v>83</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16603,7 +16614,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16624,10 +16635,10 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:34:04+00:00</t>
+    <t>2024-10-30T13:35:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:35:51+00:00</t>
+    <t>2024-11-18T15:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T15:35:30+00:00</t>
+    <t>2024-12-11T16:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:06:25+00:00</t>
+    <t>2024-12-11T16:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:39+00:00</t>
+    <t>2024-12-13T13:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:55+00:00</t>
+    <t>2024-12-13T15:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T15:58:46+00:00</t>
+    <t>2024-12-18T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4921,7 +4921,7 @@
         <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>122</v>
@@ -16224,7 +16224,7 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="Y114" t="s" s="2">
         <v>677</v>
